--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sema6a</t>
+  </si>
+  <si>
+    <t>Plxna4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema6a</t>
-  </si>
-  <si>
-    <t>Plxna4</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.89540466666667</v>
+        <v>34.94542999999999</v>
       </c>
       <c r="H2">
-        <v>161.686214</v>
+        <v>104.83629</v>
       </c>
       <c r="I2">
-        <v>0.7589755709737953</v>
+        <v>0.633548351968144</v>
       </c>
       <c r="J2">
-        <v>0.8167971433284414</v>
+        <v>0.7123011194441952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.005984666666667</v>
+        <v>3.767201333333333</v>
       </c>
       <c r="N2">
-        <v>9.017954</v>
+        <v>11.301604</v>
       </c>
       <c r="O2">
-        <v>0.50248195759901</v>
+        <v>0.6940893780398565</v>
       </c>
       <c r="P2">
-        <v>0.5387571684551946</v>
+        <v>0.7011526057336961</v>
       </c>
       <c r="Q2">
-        <v>162.0087600317951</v>
+        <v>131.6464704899066</v>
       </c>
       <c r="R2">
-        <v>1458.078840286156</v>
+        <v>1184.81823440916</v>
       </c>
       <c r="S2">
-        <v>0.381371530672739</v>
+        <v>0.4397391815757452</v>
       </c>
       <c r="T2">
-        <v>0.4400553161419229</v>
+        <v>0.4994317859653261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.89540466666667</v>
+        <v>34.94542999999999</v>
       </c>
       <c r="H3">
-        <v>161.686214</v>
+        <v>104.83629</v>
       </c>
       <c r="I3">
-        <v>0.7589755709737953</v>
+        <v>0.633548351968144</v>
       </c>
       <c r="J3">
-        <v>0.8167971433284414</v>
+        <v>0.7123011194441952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.740545</v>
       </c>
       <c r="O3">
-        <v>0.2084238147685372</v>
+        <v>0.2297260240741133</v>
       </c>
       <c r="P3">
-        <v>0.2234703606471308</v>
+        <v>0.2320637737452267</v>
       </c>
       <c r="Q3">
-        <v>67.19939548295889</v>
+        <v>43.57165115311666</v>
       </c>
       <c r="R3">
-        <v>604.7945593466301</v>
+        <v>392.1448603780499</v>
       </c>
       <c r="S3">
-        <v>0.1581885838184871</v>
+        <v>0.1455425439563486</v>
       </c>
       <c r="T3">
-        <v>0.182529952195153</v>
+        <v>0.1652992858211694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.89540466666667</v>
+        <v>34.94542999999999</v>
       </c>
       <c r="H4">
-        <v>161.686214</v>
+        <v>104.83629</v>
       </c>
       <c r="I4">
-        <v>0.7589755709737953</v>
+        <v>0.633548351968144</v>
       </c>
       <c r="J4">
-        <v>0.8167971433284414</v>
+        <v>0.7123011194441952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2670836666666667</v>
+        <v>0.041384</v>
       </c>
       <c r="N4">
-        <v>0.801251</v>
+        <v>0.124152</v>
       </c>
       <c r="O4">
-        <v>0.04464584439088561</v>
+        <v>0.007624810112122514</v>
       </c>
       <c r="P4">
-        <v>0.04786892015438238</v>
+        <v>0.007702402093282498</v>
       </c>
       <c r="Q4">
-        <v>14.39458229485711</v>
+        <v>1.44618167512</v>
       </c>
       <c r="R4">
-        <v>129.551240653714</v>
+        <v>13.01563507608</v>
       </c>
       <c r="S4">
-        <v>0.03388510523817962</v>
+        <v>0.004830685880605258</v>
       </c>
       <c r="T4">
-        <v>0.03909919723631679</v>
+        <v>0.005486429633454435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.89540466666667</v>
+        <v>34.94542999999999</v>
       </c>
       <c r="H5">
-        <v>161.686214</v>
+        <v>104.83629</v>
       </c>
       <c r="I5">
-        <v>0.7589755709737953</v>
+        <v>0.633548351968144</v>
       </c>
       <c r="J5">
-        <v>0.8167971433284414</v>
+        <v>0.7123011194441952</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.2083825</v>
+        <v>0.164027</v>
       </c>
       <c r="N5">
-        <v>2.416765</v>
+        <v>0.328054</v>
       </c>
       <c r="O5">
-        <v>0.2019938460969259</v>
+        <v>0.03022121419536825</v>
       </c>
       <c r="P5">
-        <v>0.1443841328334141</v>
+        <v>0.02035250190339017</v>
       </c>
       <c r="Q5">
-        <v>65.12626382961834</v>
+        <v>5.731994046609999</v>
       </c>
       <c r="R5">
-        <v>390.75758297771</v>
+        <v>34.39196427965999</v>
       </c>
       <c r="S5">
-        <v>0.1533083946746073</v>
+        <v>0.01914660044795183</v>
       </c>
       <c r="T5">
-        <v>0.1179325472402869</v>
+        <v>0.01449710988927493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.89540466666667</v>
+        <v>34.94542999999999</v>
       </c>
       <c r="H6">
-        <v>161.686214</v>
+        <v>104.83629</v>
       </c>
       <c r="I6">
-        <v>0.7589755709737953</v>
+        <v>0.633548351968144</v>
       </c>
       <c r="J6">
-        <v>0.8167971433284414</v>
+        <v>0.7123011194441952</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2539746666666666</v>
+        <v>0.2080843333333333</v>
       </c>
       <c r="N6">
-        <v>0.7619239999999999</v>
+        <v>0.6242529999999999</v>
       </c>
       <c r="O6">
-        <v>0.04245453714464147</v>
+        <v>0.03833857357853934</v>
       </c>
       <c r="P6">
-        <v>0.04551941790987797</v>
+        <v>0.03872871652440459</v>
       </c>
       <c r="Q6">
-        <v>13.68806743508178</v>
+        <v>7.271596504596665</v>
       </c>
       <c r="R6">
-        <v>123.192606915736</v>
+        <v>65.44436854136998</v>
       </c>
       <c r="S6">
-        <v>0.03222195656978246</v>
+        <v>0.02428934010749303</v>
       </c>
       <c r="T6">
-        <v>0.03718013051476182</v>
+        <v>0.02758650813497029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>1.917768333333333</v>
       </c>
       <c r="H7">
-        <v>5.753304999999999</v>
+        <v>5.753305</v>
       </c>
       <c r="I7">
-        <v>0.02700674250039271</v>
+        <v>0.03476846520532235</v>
       </c>
       <c r="J7">
-        <v>0.02906421625221083</v>
+        <v>0.0390903340055613</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.005984666666667</v>
+        <v>3.767201333333333</v>
       </c>
       <c r="N7">
-        <v>9.017954</v>
+        <v>11.301604</v>
       </c>
       <c r="O7">
-        <v>0.50248195759901</v>
+        <v>0.6940893780398565</v>
       </c>
       <c r="P7">
-        <v>0.5387571684551946</v>
+        <v>0.7011526057336961</v>
       </c>
       <c r="Q7">
-        <v>5.764782204218887</v>
+        <v>7.224619422357777</v>
       </c>
       <c r="R7">
-        <v>51.88303983796999</v>
+        <v>65.02157480122</v>
       </c>
       <c r="S7">
-        <v>0.01357040083996971</v>
+        <v>0.02413242238976258</v>
       </c>
       <c r="T7">
-        <v>0.01565855485141055</v>
+        <v>0.02740828954699982</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>1.917768333333333</v>
       </c>
       <c r="H8">
-        <v>5.753304999999999</v>
+        <v>5.753305</v>
       </c>
       <c r="I8">
-        <v>0.02700674250039271</v>
+        <v>0.03476846520532235</v>
       </c>
       <c r="J8">
-        <v>0.02906421625221083</v>
+        <v>0.0390903340055613</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.740545</v>
       </c>
       <c r="O8">
-        <v>0.2084238147685372</v>
+        <v>0.2297260240741133</v>
       </c>
       <c r="P8">
-        <v>0.2234703606471308</v>
+        <v>0.2320637737452267</v>
       </c>
       <c r="Q8">
         <v>2.391166250136111</v>
@@ -948,10 +948,10 @@
         <v>21.520496251225</v>
       </c>
       <c r="S8">
-        <v>0.005628848296403431</v>
+        <v>0.007987221274777852</v>
       </c>
       <c r="T8">
-        <v>0.006494990887807755</v>
+        <v>0.009071450426291917</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,13 +977,13 @@
         <v>1.917768333333333</v>
       </c>
       <c r="H9">
-        <v>5.753304999999999</v>
+        <v>5.753305</v>
       </c>
       <c r="I9">
-        <v>0.02700674250039271</v>
+        <v>0.03476846520532235</v>
       </c>
       <c r="J9">
-        <v>0.02906421625221083</v>
+        <v>0.0390903340055613</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2670836666666667</v>
+        <v>0.041384</v>
       </c>
       <c r="N9">
-        <v>0.801251</v>
+        <v>0.124152</v>
       </c>
       <c r="O9">
-        <v>0.04464584439088561</v>
+        <v>0.007624810112122514</v>
       </c>
       <c r="P9">
-        <v>0.04786892015438238</v>
+        <v>0.007702402093282498</v>
       </c>
       <c r="Q9">
-        <v>0.5122045982838889</v>
+        <v>0.07936492470666666</v>
       </c>
       <c r="R9">
-        <v>4.609841384555</v>
+        <v>0.7142843223600001</v>
       </c>
       <c r="S9">
-        <v>0.00120573882317725</v>
+        <v>0.0002651029450805216</v>
       </c>
       <c r="T9">
-        <v>0.001391272647126783</v>
+        <v>0.0003010894704715473</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,13 +1039,13 @@
         <v>1.917768333333333</v>
       </c>
       <c r="H10">
-        <v>5.753304999999999</v>
+        <v>5.753305</v>
       </c>
       <c r="I10">
-        <v>0.02700674250039271</v>
+        <v>0.03476846520532235</v>
       </c>
       <c r="J10">
-        <v>0.02906421625221083</v>
+        <v>0.0390903340055613</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.2083825</v>
+        <v>0.164027</v>
       </c>
       <c r="N10">
-        <v>2.416765</v>
+        <v>0.328054</v>
       </c>
       <c r="O10">
-        <v>0.2019938460969259</v>
+        <v>0.03022121419536825</v>
       </c>
       <c r="P10">
-        <v>0.1443841328334141</v>
+        <v>0.02035250190339017</v>
       </c>
       <c r="Q10">
-        <v>2.317397693054166</v>
+        <v>0.3145657864116666</v>
       </c>
       <c r="R10">
-        <v>13.904386158325</v>
+        <v>1.88739471847</v>
       </c>
       <c r="S10">
-        <v>0.005455195788203633</v>
+        <v>0.001050745234214255</v>
       </c>
       <c r="T10">
-        <v>0.004196411660058282</v>
+        <v>0.0007955860972523437</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,43 +1101,43 @@
         <v>1.917768333333333</v>
       </c>
       <c r="H11">
-        <v>5.753304999999999</v>
+        <v>5.753305</v>
       </c>
       <c r="I11">
-        <v>0.02700674250039271</v>
+        <v>0.03476846520532235</v>
       </c>
       <c r="J11">
-        <v>0.02906421625221083</v>
+        <v>0.0390903340055613</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2539746666666666</v>
+        <v>0.2080843333333333</v>
       </c>
       <c r="N11">
-        <v>0.7619239999999999</v>
+        <v>0.6242529999999999</v>
       </c>
       <c r="O11">
-        <v>0.04245453714464147</v>
+        <v>0.03833857357853934</v>
       </c>
       <c r="P11">
-        <v>0.04551941790987797</v>
+        <v>0.03872871652440459</v>
       </c>
       <c r="Q11">
-        <v>0.4870645732022221</v>
+        <v>0.3990575451294444</v>
       </c>
       <c r="R11">
-        <v>4.383581158819999</v>
+        <v>3.591517906165</v>
       </c>
       <c r="S11">
-        <v>0.00114655875263869</v>
+        <v>0.001332973361487136</v>
       </c>
       <c r="T11">
-        <v>0.001322986205807452</v>
+        <v>0.001513918464545677</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.03280966666666667</v>
+        <v>18.29507</v>
       </c>
       <c r="H12">
-        <v>0.098429</v>
+        <v>36.59014000000001</v>
       </c>
       <c r="I12">
-        <v>0.000462038195015066</v>
+        <v>0.3316831828265337</v>
       </c>
       <c r="J12">
-        <v>0.0004972379773867126</v>
+        <v>0.2486085465502435</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.005984666666667</v>
+        <v>3.767201333333333</v>
       </c>
       <c r="N12">
-        <v>9.017954</v>
+        <v>11.301604</v>
       </c>
       <c r="O12">
-        <v>0.50248195759901</v>
+        <v>0.6940893780398565</v>
       </c>
       <c r="P12">
-        <v>0.5387571684551946</v>
+        <v>0.7011526057336961</v>
       </c>
       <c r="Q12">
-        <v>0.09862535491844444</v>
+        <v>68.92121209742668</v>
       </c>
       <c r="R12">
-        <v>0.887628194266</v>
+        <v>413.52727258456</v>
       </c>
       <c r="S12">
-        <v>0.0002321658567166835</v>
+        <v>0.2302177740743488</v>
       </c>
       <c r="T12">
-        <v>0.0002678905247452533</v>
+        <v>0.1743125302213701</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.03280966666666667</v>
+        <v>18.29507</v>
       </c>
       <c r="H13">
-        <v>0.098429</v>
+        <v>36.59014000000001</v>
       </c>
       <c r="I13">
-        <v>0.000462038195015066</v>
+        <v>0.3316831828265337</v>
       </c>
       <c r="J13">
-        <v>0.0004972379773867126</v>
+        <v>0.2486085465502435</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.740545</v>
       </c>
       <c r="O13">
-        <v>0.2084238147685372</v>
+        <v>0.2297260240741133</v>
       </c>
       <c r="P13">
-        <v>0.2234703606471308</v>
+        <v>0.2320637737452267</v>
       </c>
       <c r="Q13">
-        <v>0.04090867820055556</v>
+        <v>22.81117753771667</v>
       </c>
       <c r="R13">
-        <v>0.368178103805</v>
+        <v>136.8670652263</v>
       </c>
       <c r="S13">
-        <v>9.629976317380938E-05</v>
+        <v>0.07619625884298681</v>
       </c>
       <c r="T13">
-        <v>0.0001111179501340585</v>
+        <v>0.05769303749776537</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.03280966666666667</v>
+        <v>18.29507</v>
       </c>
       <c r="H14">
-        <v>0.098429</v>
+        <v>36.59014000000001</v>
       </c>
       <c r="I14">
-        <v>0.000462038195015066</v>
+        <v>0.3316831828265337</v>
       </c>
       <c r="J14">
-        <v>0.0004972379773867126</v>
+        <v>0.2486085465502435</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2670836666666667</v>
+        <v>0.041384</v>
       </c>
       <c r="N14">
-        <v>0.801251</v>
+        <v>0.124152</v>
       </c>
       <c r="O14">
-        <v>0.04464584439088561</v>
+        <v>0.007624810112122514</v>
       </c>
       <c r="P14">
-        <v>0.04786892015438238</v>
+        <v>0.007702402093282498</v>
       </c>
       <c r="Q14">
-        <v>0.008762926075444445</v>
+        <v>0.7571231768800001</v>
       </c>
       <c r="R14">
-        <v>0.07886633467900001</v>
+        <v>4.542739061280001</v>
       </c>
       <c r="S14">
-        <v>2.062808535728829E-05</v>
+        <v>0.002529021286436735</v>
       </c>
       <c r="T14">
-        <v>2.380224503725114E-05</v>
+        <v>0.001914882989356515</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.03280966666666667</v>
+        <v>18.29507</v>
       </c>
       <c r="H15">
-        <v>0.098429</v>
+        <v>36.59014000000001</v>
       </c>
       <c r="I15">
-        <v>0.000462038195015066</v>
+        <v>0.3316831828265337</v>
       </c>
       <c r="J15">
-        <v>0.0004972379773867126</v>
+        <v>0.2486085465502435</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.2083825</v>
+        <v>0.164027</v>
       </c>
       <c r="N15">
-        <v>2.416765</v>
+        <v>0.328054</v>
       </c>
       <c r="O15">
-        <v>0.2019938460969259</v>
+        <v>0.03022121419536825</v>
       </c>
       <c r="P15">
-        <v>0.1443841328334141</v>
+        <v>0.02035250190339017</v>
       </c>
       <c r="Q15">
-        <v>0.03964662703083333</v>
+        <v>3.00088544689</v>
       </c>
       <c r="R15">
-        <v>0.237879762185</v>
+        <v>12.00354178756</v>
       </c>
       <c r="S15">
-        <v>9.332887205477468E-05</v>
+        <v>0.01002386851320216</v>
       </c>
       <c r="T15">
-        <v>7.179327417682128E-05</v>
+        <v>0.005059805916862894</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,681 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.03280966666666667</v>
+        <v>18.29507</v>
       </c>
       <c r="H16">
-        <v>0.098429</v>
+        <v>36.59014000000001</v>
       </c>
       <c r="I16">
-        <v>0.000462038195015066</v>
+        <v>0.3316831828265337</v>
       </c>
       <c r="J16">
-        <v>0.0004972379773867126</v>
+        <v>0.2486085465502435</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2539746666666666</v>
+        <v>0.2080843333333333</v>
       </c>
       <c r="N16">
-        <v>0.7619239999999999</v>
+        <v>0.6242529999999999</v>
       </c>
       <c r="O16">
-        <v>0.04245453714464147</v>
+        <v>0.03833857357853934</v>
       </c>
       <c r="P16">
-        <v>0.04551941790987797</v>
+        <v>0.03872871652440459</v>
       </c>
       <c r="Q16">
-        <v>0.008332824155111111</v>
+        <v>3.806917444236667</v>
       </c>
       <c r="R16">
-        <v>0.07499541739599999</v>
+        <v>22.84150466542</v>
       </c>
       <c r="S16">
-        <v>1.961561771251022E-05</v>
+        <v>0.01271626010955918</v>
       </c>
       <c r="T16">
-        <v>2.263398329332822E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>15.0806785</v>
-      </c>
-      <c r="H17">
-        <v>30.161357</v>
-      </c>
-      <c r="I17">
-        <v>0.2123718459115458</v>
-      </c>
-      <c r="J17">
-        <v>0.1523674135663124</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.005984666666667</v>
-      </c>
-      <c r="N17">
-        <v>9.017954</v>
-      </c>
-      <c r="O17">
-        <v>0.50248195759901</v>
-      </c>
-      <c r="P17">
-        <v>0.5387571684551946</v>
-      </c>
-      <c r="Q17">
-        <v>45.33228833392967</v>
-      </c>
-      <c r="R17">
-        <v>271.993730003578</v>
-      </c>
-      <c r="S17">
-        <v>0.1067130208725488</v>
-      </c>
-      <c r="T17">
-        <v>0.08208903629782809</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>15.0806785</v>
-      </c>
-      <c r="H18">
-        <v>30.161357</v>
-      </c>
-      <c r="I18">
-        <v>0.2123718459115458</v>
-      </c>
-      <c r="J18">
-        <v>0.1523674135663124</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.246848333333333</v>
-      </c>
-      <c r="N18">
-        <v>3.740545</v>
-      </c>
-      <c r="O18">
-        <v>0.2084238147685372</v>
-      </c>
-      <c r="P18">
-        <v>0.2234703606471308</v>
-      </c>
-      <c r="Q18">
-        <v>18.80331885326083</v>
-      </c>
-      <c r="R18">
-        <v>112.819913119565</v>
-      </c>
-      <c r="S18">
-        <v>0.04426335027432034</v>
-      </c>
-      <c r="T18">
-        <v>0.03404960086053437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>15.0806785</v>
-      </c>
-      <c r="H19">
-        <v>30.161357</v>
-      </c>
-      <c r="I19">
-        <v>0.2123718459115458</v>
-      </c>
-      <c r="J19">
-        <v>0.1523674135663124</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.2670836666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.801251</v>
-      </c>
-      <c r="O19">
-        <v>0.04464584439088561</v>
-      </c>
-      <c r="P19">
-        <v>0.04786892015438238</v>
-      </c>
-      <c r="Q19">
-        <v>4.027802909601167</v>
-      </c>
-      <c r="R19">
-        <v>24.166817457607</v>
-      </c>
-      <c r="S19">
-        <v>0.009481520385572009</v>
-      </c>
-      <c r="T19">
-        <v>0.007293663554135569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>15.0806785</v>
-      </c>
-      <c r="H20">
-        <v>30.161357</v>
-      </c>
-      <c r="I20">
-        <v>0.2123718459115458</v>
-      </c>
-      <c r="J20">
-        <v>0.1523674135663124</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.2083825</v>
-      </c>
-      <c r="N20">
-        <v>2.416765</v>
-      </c>
-      <c r="O20">
-        <v>0.2019938460969259</v>
-      </c>
-      <c r="P20">
-        <v>0.1443841328334141</v>
-      </c>
-      <c r="Q20">
-        <v>18.22322798752625</v>
-      </c>
-      <c r="R20">
-        <v>72.892911950105</v>
-      </c>
-      <c r="S20">
-        <v>0.04289780595837684</v>
-      </c>
-      <c r="T20">
-        <v>0.0219994368798422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>15.0806785</v>
-      </c>
-      <c r="H21">
-        <v>30.161357</v>
-      </c>
-      <c r="I21">
-        <v>0.2123718459115458</v>
-      </c>
-      <c r="J21">
-        <v>0.1523674135663124</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.2539746666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.7619239999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.04245453714464147</v>
-      </c>
-      <c r="P21">
-        <v>0.04551941790987797</v>
-      </c>
-      <c r="Q21">
-        <v>3.830110295144666</v>
-      </c>
-      <c r="R21">
-        <v>22.980661770868</v>
-      </c>
-      <c r="S21">
-        <v>0.009016148420727794</v>
-      </c>
-      <c r="T21">
-        <v>0.006935675973972186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.08406266666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.252188</v>
-      </c>
-      <c r="I22">
-        <v>0.001183802419251028</v>
-      </c>
-      <c r="J22">
-        <v>0.001273988875648439</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>3.005984666666667</v>
-      </c>
-      <c r="N22">
-        <v>9.017954</v>
-      </c>
-      <c r="O22">
-        <v>0.50248195759901</v>
-      </c>
-      <c r="P22">
-        <v>0.5387571684551946</v>
-      </c>
-      <c r="Q22">
-        <v>0.2526910870391111</v>
-      </c>
-      <c r="R22">
-        <v>2.274219783352</v>
-      </c>
-      <c r="S22">
-        <v>0.0005948393570357007</v>
-      </c>
-      <c r="T22">
-        <v>0.0006863706392877702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.08406266666666666</v>
-      </c>
-      <c r="H23">
-        <v>0.252188</v>
-      </c>
-      <c r="I23">
-        <v>0.001183802419251028</v>
-      </c>
-      <c r="J23">
-        <v>0.001273988875648439</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.246848333333333</v>
-      </c>
-      <c r="N23">
-        <v>3.740545</v>
-      </c>
-      <c r="O23">
-        <v>0.2084238147685372</v>
-      </c>
-      <c r="P23">
-        <v>0.2234703606471308</v>
-      </c>
-      <c r="Q23">
-        <v>0.1048133958288889</v>
-      </c>
-      <c r="R23">
-        <v>0.9433205624599998</v>
-      </c>
-      <c r="S23">
-        <v>0.0002467326161525225</v>
-      </c>
-      <c r="T23">
-        <v>0.0002846987535015895</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.08406266666666666</v>
-      </c>
-      <c r="H24">
-        <v>0.252188</v>
-      </c>
-      <c r="I24">
-        <v>0.001183802419251028</v>
-      </c>
-      <c r="J24">
-        <v>0.001273988875648439</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.2670836666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.801251</v>
-      </c>
-      <c r="O24">
-        <v>0.04464584439088561</v>
-      </c>
-      <c r="P24">
-        <v>0.04786892015438238</v>
-      </c>
-      <c r="Q24">
-        <v>0.02245176524311111</v>
-      </c>
-      <c r="R24">
-        <v>0.202065887188</v>
-      </c>
-      <c r="S24">
-        <v>5.285185859943533E-05</v>
-      </c>
-      <c r="T24">
-        <v>6.098447176598653E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.08406266666666666</v>
-      </c>
-      <c r="H25">
-        <v>0.252188</v>
-      </c>
-      <c r="I25">
-        <v>0.001183802419251028</v>
-      </c>
-      <c r="J25">
-        <v>0.001273988875648439</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.2083825</v>
-      </c>
-      <c r="N25">
-        <v>2.416765</v>
-      </c>
-      <c r="O25">
-        <v>0.2019938460969259</v>
-      </c>
-      <c r="P25">
-        <v>0.1443841328334141</v>
-      </c>
-      <c r="Q25">
-        <v>0.1015798553033333</v>
-      </c>
-      <c r="R25">
-        <v>0.6094791318199999</v>
-      </c>
-      <c r="S25">
-        <v>0.0002391208036833607</v>
-      </c>
-      <c r="T25">
-        <v>0.0001839437790499162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.08406266666666666</v>
-      </c>
-      <c r="H26">
-        <v>0.252188</v>
-      </c>
-      <c r="I26">
-        <v>0.001183802419251028</v>
-      </c>
-      <c r="J26">
-        <v>0.001273988875648439</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.2539746666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.7619239999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.04245453714464147</v>
-      </c>
-      <c r="P26">
-        <v>0.04551941790987797</v>
-      </c>
-      <c r="Q26">
-        <v>0.02134978774577777</v>
-      </c>
-      <c r="R26">
-        <v>0.192148089712</v>
-      </c>
-      <c r="S26">
-        <v>5.025778378000921E-05</v>
-      </c>
-      <c r="T26">
-        <v>5.799123204317687E-05</v>
+        <v>0.009628289924888626</v>
       </c>
     </row>
   </sheetData>
